--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\auto-targeting-turret\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C272119-D2B1-4E82-975D-FD70C14D636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF448961-EEAC-4E7D-995B-EF5F2D8AE860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>锡膏松香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E23"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -503,12 +507,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-    </row>
+    <row r="1" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -523,224 +522,201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="4">
         <v>4</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-    </row>
+    <row r="18" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
